--- a/BIO325_kolmule_otolitt_data.xlsx
+++ b/BIO325_kolmule_otolitt_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/sor011_uib_no/Documents/BIO 325 - kolmule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ginabroten/Documents/Master/h24/bio325/BIO325_H2024/BIO325_H2024_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="11_9C5455BF84DCCE936262E6F99831F45BBA780A8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFA58044-4F24-4AF0-A143-47784075C144}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1834E6B1-BEFE-584F-BC42-A5A80879887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,7 +541,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -779,7 +778,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1546909704"/>
@@ -841,7 +840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1546907656"/>
@@ -883,7 +882,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -913,7 +912,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -964,7 +963,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1451,7 +1450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="794643976"/>
@@ -1513,7 +1512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="794641928"/>
@@ -1555,7 +1554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nb-NO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1585,7 +1584,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nb-NO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3114,22 +3113,22 @@
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3200,7 +3199,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3233,7 +3232,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3266,7 +3265,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3404,7 +3403,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3507,7 +3506,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3540,7 +3539,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3573,7 +3572,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3606,7 +3605,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3781,7 +3780,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3814,7 +3813,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3882,7 +3881,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3915,7 +3914,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3948,7 +3947,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3981,7 +3980,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4014,7 +4013,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4047,7 +4046,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4080,7 +4079,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4149,7 +4148,7 @@
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4182,7 +4181,7 @@
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4215,7 +4214,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4248,7 +4247,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4281,7 +4280,7 @@
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4347,7 +4346,7 @@
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4380,7 +4379,7 @@
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4413,7 +4412,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4446,7 +4445,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4479,7 +4478,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4512,7 +4511,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4545,7 +4544,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75">
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4578,7 +4577,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4611,7 +4610,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4644,7 +4643,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4677,7 +4676,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4710,7 +4709,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4778,7 +4777,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4811,7 +4810,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4844,7 +4843,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75">
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4877,7 +4876,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4910,7 +4909,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75">
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4978,7 +4977,7 @@
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5011,7 +5010,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -5044,7 +5043,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5077,7 +5076,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75">
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5110,7 +5109,7 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75">
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5143,7 +5142,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75">
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5176,7 +5175,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75">
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>42</v>
       </c>
@@ -5191,12 +5190,12 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75">
+    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J69">
         <v>0.185</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J70">
         <v>0.17</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75">
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J71">
         <v>0.19</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J72">
         <v>0.19500000000000001</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75">
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J73">
         <v>0.22500000000000001</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75">
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J74">
         <v>0.20499999999999999</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75">
+    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J75">
         <v>0.28499999999999998</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75">
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J76">
         <v>0.30499999999999999</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="J77">
         <v>0.27</v>
       </c>
@@ -5295,12 +5294,12 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="86" spans="3:4" ht="15.75">
+    <row r="86" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
         <v>44</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>61.18</v>
       </c>
     </row>
-    <row r="88" spans="3:4" ht="15.75">
+    <row r="88" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C88" s="2" t="s">
         <v>45</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>115.26</v>
       </c>
     </row>
-    <row r="89" spans="3:4" ht="15.75">
+    <row r="89" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C89" s="2" t="s">
         <v>46</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>108.41</v>
       </c>
     </row>
-    <row r="90" spans="3:4" ht="15.75">
+    <row r="90" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
         <v>47</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>67.849999999999994</v>
       </c>
     </row>
-    <row r="91" spans="3:4" ht="15.75">
+    <row r="91" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C91" s="2" t="s">
         <v>47</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>73.61</v>
       </c>
     </row>
-    <row r="92" spans="3:4" ht="15.75">
+    <row r="92" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C92" s="2" t="s">
         <v>48</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>70.209999999999994</v>
       </c>
     </row>
-    <row r="93" spans="3:4" ht="15.75">
+    <row r="93" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C93" s="2" t="s">
         <v>49</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="94" spans="3:4" ht="15.75">
+    <row r="94" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
         <v>49</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>31.106999999999999</v>
       </c>
     </row>
-    <row r="95" spans="3:4" ht="15.75">
+    <row r="95" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
         <v>50</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>32.460999999999999</v>
       </c>
     </row>
-    <row r="96" spans="3:4" ht="15.75">
+    <row r="96" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
         <v>51</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>71.986000000000004</v>
       </c>
     </row>
-    <row r="97" spans="3:4" ht="15.75">
+    <row r="97" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
         <v>52</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>64.125</v>
       </c>
     </row>
-    <row r="98" spans="3:4" ht="15.75">
+    <row r="98" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
         <v>53</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>40.595999999999997</v>
       </c>
     </row>
-    <row r="99" spans="3:4" ht="15.75">
+    <row r="99" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>49</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>36.04</v>
       </c>
     </row>
-    <row r="100" spans="3:4" ht="15.75">
+    <row r="100" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C100" s="2" t="s">
         <v>54</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>31.545000000000002</v>
       </c>
     </row>
-    <row r="101" spans="3:4" ht="15.75">
+    <row r="101" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C101" s="2" t="s">
         <v>50</v>
       </c>
@@ -5420,7 +5419,7 @@
         <v>30.920999999999999</v>
       </c>
     </row>
-    <row r="102" spans="3:4" ht="15.75">
+    <row r="102" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>54</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>29.951000000000001</v>
       </c>
     </row>
-    <row r="103" spans="3:4" ht="15.75">
+    <row r="103" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
         <v>55</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>44.709000000000003</v>
       </c>
     </row>
-    <row r="104" spans="3:4" ht="15.75">
+    <row r="104" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>56</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>90.08</v>
       </c>
     </row>
-    <row r="105" spans="3:4" ht="15.75">
+    <row r="105" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
         <v>56</v>
       </c>
@@ -5452,7 +5451,7 @@
         <v>106.762</v>
       </c>
     </row>
-    <row r="106" spans="3:4" ht="15.75">
+    <row r="106" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
         <v>48</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>62.83</v>
       </c>
     </row>
-    <row r="107" spans="3:4" ht="15.75">
+    <row r="107" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
         <v>57</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>120.102</v>
       </c>
     </row>
-    <row r="108" spans="3:4" ht="15.75">
+    <row r="108" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
         <v>53</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>36.472000000000001</v>
       </c>
     </row>
-    <row r="109" spans="3:4" ht="15.75">
+    <row r="109" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C109" s="2" t="s">
         <v>58</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>41.682000000000002</v>
       </c>
     </row>
-    <row r="110" spans="3:4" ht="15.75">
+    <row r="110" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
         <v>59</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>94.33</v>
       </c>
     </row>
-    <row r="111" spans="3:4" ht="15.75">
+    <row r="111" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
         <v>57</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>111.41</v>
       </c>
     </row>
-    <row r="112" spans="3:4" ht="15.75">
+    <row r="112" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
         <v>49</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>34.01</v>
       </c>
     </row>
-    <row r="113" spans="3:4" ht="15.75">
+    <row r="113" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
         <v>46</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>87.47</v>
       </c>
     </row>
-    <row r="114" spans="3:4" ht="15.75">
+    <row r="114" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C114" s="2" t="s">
         <v>45</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="115" spans="3:4" ht="15.75">
+    <row r="115" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
         <v>46</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>95.47</v>
       </c>
     </row>
-    <row r="116" spans="3:4" ht="15.75">
+    <row r="116" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C116" s="2" t="s">
         <v>60</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="117" spans="3:4" ht="15.75">
+    <row r="117" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
         <v>61</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="118" spans="3:4" ht="15.75">
+    <row r="118" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C118" s="2" t="s">
         <v>62</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>119.19</v>
       </c>
     </row>
-    <row r="119" spans="3:4" ht="15.75">
+    <row r="119" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
         <v>63</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>69.53</v>
       </c>
     </row>
-    <row r="120" spans="3:4" ht="15.75">
+    <row r="120" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
         <v>59</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>100.61</v>
       </c>
     </row>
-    <row r="121" spans="3:4" ht="15.75">
+    <row r="121" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
         <v>63</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>73.62</v>
       </c>
     </row>
-    <row r="122" spans="3:4" ht="15.75">
+    <row r="122" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
         <v>57</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>99.53</v>
       </c>
     </row>
-    <row r="123" spans="3:4" ht="15.75">
+    <row r="123" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
         <v>64</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>126.78</v>
       </c>
     </row>
-    <row r="124" spans="3:4" ht="15.75">
+    <row r="124" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
         <v>63</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>65.37</v>
       </c>
     </row>
-    <row r="125" spans="3:4" ht="15.75">
+    <row r="125" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
         <v>55</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>40.56</v>
       </c>
     </row>
-    <row r="126" spans="3:4" ht="15.75">
+    <row r="126" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
         <v>52</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="127" spans="3:4" ht="15.75">
+    <row r="127" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C127" s="2" t="s">
         <v>64</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>122.49</v>
       </c>
     </row>
-    <row r="128" spans="3:4" ht="15.75">
+    <row r="128" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C128" s="2" t="s">
         <v>65</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>154.27000000000001</v>
       </c>
     </row>
-    <row r="129" spans="3:4" ht="15.75">
+    <row r="129" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
         <v>53</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>38.880000000000003</v>
       </c>
     </row>
-    <row r="130" spans="3:4" ht="15.75">
+    <row r="130" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
         <v>58</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="131" spans="3:4" ht="15.75">
+    <row r="131" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C131" s="2" t="s">
         <v>55</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>44.75</v>
       </c>
     </row>
-    <row r="132" spans="3:4" ht="15.75">
+    <row r="132" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C132" s="2" t="s">
         <v>65</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>150.13</v>
       </c>
     </row>
-    <row r="133" spans="3:4" ht="15.75">
+    <row r="133" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
         <v>47</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="134" spans="3:4" ht="15.75">
+    <row r="134" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
         <v>45</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="135" spans="3:4" ht="15.75">
+    <row r="135" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C135" s="2" t="s">
         <v>55</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="136" spans="3:4" ht="15.75">
+    <row r="136" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
         <v>66</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>37.78</v>
       </c>
     </row>
-    <row r="137" spans="3:4" ht="15.75">
+    <row r="137" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
         <v>67</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>35.81</v>
       </c>
     </row>
-    <row r="138" spans="3:4" ht="15.75">
+    <row r="138" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
         <v>53</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>39.450000000000003</v>
       </c>
     </row>
-    <row r="139" spans="3:4" ht="15.75">
+    <row r="139" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
         <v>68</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="140" spans="3:4" ht="15.75">
+    <row r="140" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
         <v>66</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>38.909999999999997</v>
       </c>
     </row>
-    <row r="141" spans="3:4" ht="15.75">
+    <row r="141" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
         <v>58</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>40.65</v>
       </c>
     </row>
-    <row r="142" spans="3:4" ht="15.75">
+    <row r="142" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C142" s="2" t="s">
         <v>60</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="143" spans="3:4" ht="15.75">
+    <row r="143" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
         <v>44</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="144" spans="3:4" ht="15.75">
+    <row r="144" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
         <v>64</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>132.87</v>
       </c>
     </row>
-    <row r="145" spans="3:4" ht="15.75">
+    <row r="145" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C145" s="2" t="s">
         <v>69</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>147.18</v>
       </c>
     </row>
-    <row r="146" spans="3:4" ht="15.75">
+    <row r="146" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
         <v>45</v>
       </c>
@@ -5790,18 +5789,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286D330A-16D8-C048-B5DB-B09B9C7CB867}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5832,18 +5831,18 @@
       <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>474</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -5867,16 +5866,16 @@
       <c r="J2" s="2">
         <v>62.38</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>474</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -5900,16 +5899,18 @@
       <c r="J3" s="1">
         <v>115.9</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>474</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -5933,16 +5934,16 @@
       <c r="J4" s="1">
         <v>106.76</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>474</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -5966,18 +5967,18 @@
       <c r="J5" s="1">
         <v>67.39</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>474</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -6001,18 +6002,18 @@
       <c r="J6" s="1">
         <v>74.5</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>474</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -6036,18 +6037,18 @@
       <c r="J7" s="1">
         <v>70.8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="6">
         <v>474</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -6071,16 +6072,16 @@
       <c r="J8" s="1">
         <v>37.590000000000003</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>474</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -6104,18 +6105,18 @@
       <c r="J9" s="1">
         <v>30.867999999999999</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>474</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -6139,18 +6140,18 @@
       <c r="J10" s="1">
         <v>32.792000000000002</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>475</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -6174,18 +6175,18 @@
       <c r="J11" s="1">
         <v>71.81</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>475</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -6209,18 +6210,18 @@
       <c r="J12" s="1">
         <v>63.466000000000001</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>475</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -6244,16 +6245,16 @@
       <c r="J13" s="1">
         <v>40.715000000000003</v>
       </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>475</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -6277,16 +6278,16 @@
       <c r="J14" s="1">
         <v>35.795000000000002</v>
       </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>475</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>27</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -6310,16 +6311,16 @@
       <c r="J15" s="1">
         <v>31.3</v>
       </c>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>475</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -6343,18 +6344,18 @@
       <c r="J16" s="1">
         <v>31.393000000000001</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>475</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>30</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -6378,18 +6379,18 @@
       <c r="J17" s="1">
         <v>30.036999999999999</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>488</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -6413,16 +6414,16 @@
       <c r="J18" s="1">
         <v>45.482999999999997</v>
       </c>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="6">
         <v>488</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>9</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -6446,16 +6447,16 @@
       <c r="J19" s="1">
         <v>88.918999999999997</v>
       </c>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>488</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -6479,16 +6480,16 @@
       <c r="J20" s="1">
         <v>108.202</v>
       </c>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>488</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -6512,18 +6513,18 @@
       <c r="J21" s="1">
         <v>64.546999999999997</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="6">
         <v>488</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -6547,16 +6548,16 @@
       <c r="J22" s="1">
         <v>122.867</v>
       </c>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="6">
         <v>488</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="2">
         <v>19</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -6580,9 +6581,9 @@
       <c r="J23" s="1">
         <v>36.948999999999998</v>
       </c>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6613,9 +6614,9 @@
       <c r="J24" s="1">
         <v>41.173999999999999</v>
       </c>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6646,9 +6647,9 @@
       <c r="J25" s="1">
         <v>96.4</v>
       </c>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6679,9 +6680,9 @@
       <c r="J26" s="1">
         <v>111.02</v>
       </c>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6712,9 +6713,9 @@
       <c r="J27" s="1">
         <v>33.619999999999997</v>
       </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6745,9 +6746,11 @@
       <c r="J28" s="1">
         <v>86.04</v>
       </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6778,11 +6781,11 @@
       <c r="J29" s="1">
         <v>115.5</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6813,11 +6816,11 @@
       <c r="J30" s="1">
         <v>95.8</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6848,11 +6851,11 @@
       <c r="J31" s="1">
         <v>85.69</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -6883,11 +6886,11 @@
       <c r="J32" s="1">
         <v>125.56</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -6918,9 +6921,9 @@
       <c r="J33" s="1">
         <v>119.72</v>
       </c>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6951,11 +6954,11 @@
       <c r="J34" s="1">
         <v>69.430000000000007</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -6986,9 +6989,9 @@
       <c r="J35" s="1">
         <v>102.1</v>
       </c>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7019,11 +7022,11 @@
       <c r="J36" s="1">
         <v>76.349999999999994</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7054,9 +7057,9 @@
       <c r="J37" s="1">
         <v>99.79</v>
       </c>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7087,9 +7090,11 @@
       <c r="J38" s="1">
         <v>133.27000000000001</v>
       </c>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75">
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -7120,11 +7125,11 @@
       <c r="J39" s="1">
         <v>65.040000000000006</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -7155,9 +7160,9 @@
       <c r="J40" s="1">
         <v>40.17</v>
       </c>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -7188,11 +7193,11 @@
       <c r="J41" s="1">
         <v>79.069999999999993</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -7223,11 +7228,11 @@
       <c r="J42" s="1">
         <v>127.91</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75">
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -7258,11 +7263,11 @@
       <c r="J43" s="1">
         <v>149.47999999999999</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -7293,9 +7298,9 @@
       <c r="J44" s="1">
         <v>39.17</v>
       </c>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -7326,9 +7331,9 @@
       <c r="J45" s="1">
         <v>41.47</v>
       </c>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -7359,9 +7364,9 @@
       <c r="J46" s="1">
         <v>45.22</v>
       </c>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -7392,9 +7397,11 @@
       <c r="J47" s="1">
         <v>151.86000000000001</v>
       </c>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75">
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -7425,11 +7432,11 @@
       <c r="J48" s="1">
         <v>67.709999999999994</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -7460,9 +7467,9 @@
       <c r="J49" s="1">
         <v>97.96</v>
       </c>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -7493,9 +7500,9 @@
       <c r="J50" s="1">
         <v>41.11</v>
       </c>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -7526,9 +7533,9 @@
       <c r="J51" s="1">
         <v>36.840000000000003</v>
       </c>
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -7559,9 +7566,9 @@
       <c r="J52" s="1">
         <v>38.61</v>
       </c>
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -7592,9 +7599,9 @@
       <c r="J53" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -7625,11 +7632,11 @@
       <c r="J54" s="1">
         <v>33.89</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -7660,9 +7667,9 @@
       <c r="J55" s="1">
         <v>40.04</v>
       </c>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -7693,9 +7700,9 @@
       <c r="J56" s="1">
         <v>40.450000000000003</v>
       </c>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -7726,11 +7733,11 @@
       <c r="J57" s="1">
         <v>68.52</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -7761,9 +7768,9 @@
       <c r="J58" s="1">
         <v>42.28</v>
       </c>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -7794,11 +7801,11 @@
       <c r="J59" s="1">
         <v>134.19</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75">
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -7829,11 +7836,11 @@
       <c r="J60" s="1">
         <v>149.99</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75">
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -7864,7 +7871,7 @@
       <c r="J61" s="1">
         <v>150.46</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="1">
         <v>4</v>
       </c>
     </row>
@@ -7881,12 +7888,12 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -7912,7 +7919,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -7938,7 +7945,7 @@
         <v>9.4649999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7964,7 +7971,7 @@
         <v>10.135999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -7990,7 +7997,7 @@
         <v>12.823</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -8016,7 +8023,7 @@
         <v>12.973000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -8042,7 +8049,7 @@
         <v>12.510999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -8068,7 +8075,7 @@
         <v>12.406000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -8094,7 +8101,7 @@
         <v>10.404</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11</v>
       </c>
@@ -8120,7 +8127,7 @@
         <v>10.349</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12</v>
       </c>
@@ -8146,7 +8153,7 @@
         <v>10.698</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>13</v>
       </c>
@@ -8172,7 +8179,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>14</v>
       </c>
@@ -8198,7 +8205,7 @@
         <v>10.497</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15</v>
       </c>
@@ -8224,7 +8231,7 @@
         <v>10.574999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>16</v>
       </c>
@@ -8250,7 +8257,7 @@
         <v>8.9489999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>17</v>
       </c>
@@ -8276,7 +8283,7 @@
         <v>8.3780000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>18</v>
       </c>
@@ -8302,7 +8309,7 @@
         <v>8.3339999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19</v>
       </c>
@@ -8328,7 +8335,7 @@
         <v>8.1270000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>8.3320000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>21</v>
       </c>
@@ -8380,7 +8387,7 @@
         <v>10.885</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>22</v>
       </c>
@@ -8406,7 +8413,7 @@
         <v>10.824999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>23</v>
       </c>
@@ -8432,7 +8439,7 @@
         <v>10.472</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>24</v>
       </c>
@@ -8458,7 +8465,7 @@
         <v>10.542999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>25</v>
       </c>
@@ -8484,7 +8491,7 @@
         <v>8.9789999999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>26</v>
       </c>
@@ -8510,7 +8517,7 @@
         <v>8.8879999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>27</v>
       </c>
@@ -8536,7 +8543,7 @@
         <v>8.7680000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>28</v>
       </c>
@@ -8562,7 +8569,7 @@
         <v>8.7919999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>29</v>
       </c>
@@ -8588,7 +8595,7 @@
         <v>8.4220000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>31</v>
       </c>
@@ -8640,7 +8647,7 @@
         <v>8.2089999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>32</v>
       </c>
@@ -8666,7 +8673,7 @@
         <v>8.2550000000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>33</v>
       </c>
@@ -8692,7 +8699,7 @@
         <v>8.2309999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>34</v>
       </c>
@@ -8718,7 +8725,7 @@
         <v>8.2089999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>35</v>
       </c>
@@ -8744,7 +8751,7 @@
         <v>9.3420000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>36</v>
       </c>
@@ -8770,7 +8777,7 @@
         <v>8.3330000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>37</v>
       </c>
@@ -8796,7 +8803,7 @@
         <v>11.791</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38</v>
       </c>
@@ -8822,7 +8829,7 @@
         <v>11.792</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>39</v>
       </c>
@@ -8848,7 +8855,7 @@
         <v>12.532</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>40</v>
       </c>
@@ -8874,7 +8881,7 @@
         <v>12.436999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>41</v>
       </c>
@@ -8900,7 +8907,7 @@
         <v>10.131</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>42</v>
       </c>
@@ -8926,7 +8933,7 @@
         <v>10.218</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>43</v>
       </c>
@@ -8952,7 +8959,7 @@
         <v>12.366</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>44</v>
       </c>
@@ -8978,7 +8985,7 @@
         <v>12.385</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>45</v>
       </c>
@@ -9004,7 +9011,7 @@
         <v>8.9849999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>46</v>
       </c>
@@ -9030,7 +9037,7 @@
         <v>9.0289999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>47</v>
       </c>
@@ -9056,7 +9063,7 @@
         <v>9.2170000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>48</v>
       </c>
@@ -9082,7 +9089,7 @@
         <v>9.1519999999999992</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -9108,7 +9115,7 @@
         <v>14.054</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -9134,7 +9141,7 @@
         <v>13.862</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -9160,7 +9167,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -9186,7 +9193,7 @@
         <v>13.91</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -9212,7 +9219,7 @@
         <v>13.179</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -9238,7 +9245,7 @@
         <v>12.933999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
@@ -9264,7 +9271,7 @@
         <v>8.9350000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>8</v>
       </c>
@@ -9290,7 +9297,7 @@
         <v>8.9160000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9</v>
       </c>
@@ -9316,7 +9323,7 @@
         <v>10.465</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10</v>
       </c>
@@ -9342,7 +9349,7 @@
         <v>10.321</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>11</v>
       </c>
@@ -9368,7 +9375,7 @@
         <v>8.7629999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>12</v>
       </c>
@@ -9394,7 +9401,7 @@
         <v>8.7460000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>13</v>
       </c>
@@ -9420,7 +9427,7 @@
         <v>9.0809999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14</v>
       </c>
@@ -9446,7 +9453,7 @@
         <v>9.2520000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>15</v>
       </c>
@@ -9472,7 +9479,7 @@
         <v>8.4030000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>16</v>
       </c>
@@ -9498,7 +9505,7 @@
         <v>8.484</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>17</v>
       </c>
@@ -9524,7 +9531,7 @@
         <v>9.2240000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>18</v>
       </c>
@@ -9550,7 +9557,7 @@
         <v>9.1389999999999993</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>19</v>
       </c>
@@ -9576,7 +9583,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>20</v>
       </c>
@@ -9602,7 +9609,7 @@
         <v>8.7040000000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>21</v>
       </c>
@@ -9628,7 +9635,7 @@
         <v>8.7409999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>22</v>
       </c>
@@ -9654,7 +9661,7 @@
         <v>8.7080000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>23</v>
       </c>
@@ -9680,7 +9687,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>24</v>
       </c>
@@ -9706,7 +9713,7 @@
         <v>9.1519999999999992</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>25</v>
       </c>
@@ -9732,7 +9739,7 @@
         <v>11.637</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>26</v>
       </c>
@@ -9758,7 +9765,7 @@
         <v>11.616</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>27</v>
       </c>
@@ -9784,7 +9791,7 @@
         <v>10.477</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>28</v>
       </c>
@@ -9810,7 +9817,7 @@
         <v>10.420999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>29</v>
       </c>
@@ -9836,7 +9843,7 @@
         <v>13.742000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>30</v>
       </c>
@@ -9862,7 +9869,7 @@
         <v>13.695</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>31</v>
       </c>
@@ -9888,7 +9895,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>32</v>
       </c>
@@ -9914,7 +9921,7 @@
         <v>10.984</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>33</v>
       </c>
@@ -9940,7 +9947,7 @@
         <v>9.0109999999999992</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>34</v>
       </c>
@@ -9966,7 +9973,7 @@
         <v>9.0129999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>35</v>
       </c>
@@ -9992,7 +9999,7 @@
         <v>8.8409999999999993</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>36</v>
       </c>
@@ -10018,7 +10025,7 @@
         <v>8.8659999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>37</v>
       </c>
@@ -10044,7 +10051,7 @@
         <v>13.862</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>38</v>
       </c>
@@ -10070,7 +10077,7 @@
         <v>13.779</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>39</v>
       </c>
@@ -10096,7 +10103,7 @@
         <v>9.423</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>40</v>
       </c>
@@ -10122,7 +10129,7 @@
         <v>9.5950000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>41</v>
       </c>
@@ -10148,7 +10155,7 @@
         <v>12.928000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>42</v>
       </c>
@@ -10174,7 +10181,7 @@
         <v>13.131</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>43</v>
       </c>
@@ -10200,7 +10207,7 @@
         <v>10.987</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>44</v>
       </c>
@@ -10226,7 +10233,7 @@
         <v>11.082000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>45</v>
       </c>
@@ -10252,7 +10259,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>46</v>
       </c>
@@ -10278,7 +10285,7 @@
         <v>9.0139999999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>47</v>
       </c>
@@ -10304,7 +10311,7 @@
         <v>10.696999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>48</v>
       </c>
@@ -10330,7 +10337,7 @@
         <v>10.673999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>49</v>
       </c>
@@ -10356,7 +10363,7 @@
         <v>13.46</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>50</v>
       </c>
@@ -10382,7 +10389,7 @@
         <v>13.331</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>51</v>
       </c>
@@ -10408,7 +10415,7 @@
         <v>11.685</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>52</v>
       </c>
@@ -10434,7 +10441,7 @@
         <v>11.686</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>53</v>
       </c>
@@ -10460,7 +10467,7 @@
         <v>10.675000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>54</v>
       </c>
@@ -10486,7 +10493,7 @@
         <v>10.747</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>55</v>
       </c>
@@ -10512,7 +10519,7 @@
         <v>11.961</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>56</v>
       </c>
@@ -10538,7 +10545,7 @@
         <v>11.824</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>57</v>
       </c>
@@ -10564,7 +10571,7 @@
         <v>10.792999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>58</v>
       </c>
@@ -10590,7 +10597,7 @@
         <v>10.709</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>59</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>12.538</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>60</v>
       </c>
@@ -10642,7 +10649,7 @@
         <v>12.462999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>61</v>
       </c>
@@ -10668,7 +10675,7 @@
         <v>13.144</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>62</v>
       </c>
@@ -10694,7 +10701,7 @@
         <v>13.047000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>63</v>
       </c>
@@ -10720,7 +10727,7 @@
         <v>11.608000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>64</v>
       </c>
@@ -10746,7 +10753,7 @@
         <v>11.545</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>65</v>
       </c>
@@ -10772,7 +10779,7 @@
         <v>11.449</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>66</v>
       </c>
@@ -10798,7 +10805,7 @@
         <v>11.573</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>67</v>
       </c>
@@ -10824,7 +10831,7 @@
         <v>12.728999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>68</v>
       </c>
@@ -10850,7 +10857,7 @@
         <v>12.701000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>69</v>
       </c>
@@ -10876,7 +10883,7 @@
         <v>11.571999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>70</v>
       </c>
@@ -10902,7 +10909,7 @@
         <v>11.439</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>71</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>8.4779999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>72</v>
       </c>
@@ -10954,7 +10961,7 @@
         <v>8.4629999999999992</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>73</v>
       </c>
@@ -10980,7 +10987,7 @@
         <v>12.148</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>74</v>
       </c>
@@ -11006,7 +11013,7 @@
         <v>12.178000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>75</v>
       </c>
@@ -11032,7 +11039,7 @@
         <v>12.159000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>76</v>
       </c>
@@ -11071,9 +11078,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -11099,7 +11106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11122,7 +11129,7 @@
         <v>11.878</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11148,7 +11155,7 @@
         <v>11.878</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
